--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwin/Elektronik/rotating_display_pico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AB0715-11CC-6B4B-88FF-9F5F9B603047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F701C835-078F-A94F-A1B4-54285F9765E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="680" windowWidth="28240" windowHeight="16980" xr2:uid="{E40A7C9C-FBF9-3A4D-BBFB-1AA748E6AB9A}"/>
+    <workbookView xWindow="280" yWindow="680" windowWidth="28520" windowHeight="17960" xr2:uid="{E40A7C9C-FBF9-3A4D-BBFB-1AA748E6AB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RDpico_display" localSheetId="0">Tabelle1!$A$3:$F$21</definedName>
+    <definedName name="RD56m_PS_V1" localSheetId="0">Tabelle1!$A$25:$F$41</definedName>
+    <definedName name="RDpico_display" localSheetId="0">Tabelle1!$A$4:$F$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,19 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9AA40B58-D67E-0D40-91B6-726045999C32}" name="RDpico_display" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{0B1F0917-0D67-F74F-9373-FC26AB20022B}" name="RD56m_PS_V1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/ludwin/Elektronik/rotating_display_pico/RDpico_electronics/RDpico_PS/RD56m_PS_V1.csv" decimal="," thousands="." comma="1" semicolon="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{9AA40B58-D67E-0D40-91B6-726045999C32}" name="RDpico_display" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/ludwin/Elektronik/rotating_display_pico/RDpico_electronics/RDpico_display/RDpico_display.csv" decimal="," thousands="." comma="1" semicolon="1">
       <textFields count="6">
         <textField/>
@@ -56,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
   <si>
     <t>#</t>
   </si>
@@ -229,20 +242,212 @@
     <t>BOM Rotating Display Pico</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
     <t>4 layer PCB</t>
   </si>
   <si>
-    <t>various sources, for example JLCPCB.com</t>
+    <t>47 Ohm</t>
+  </si>
+  <si>
+    <t>PCB RDpico_display</t>
+  </si>
+  <si>
+    <t>PCB RDpico_motor_tray</t>
+  </si>
+  <si>
+    <t>1. RDpico_display</t>
+  </si>
+  <si>
+    <t>2 layer PCB</t>
+  </si>
+  <si>
+    <t>custom made from Gerber files, various sources, for example JLCPCB.com</t>
+  </si>
+  <si>
+    <t>PCB RDpico_PS</t>
+  </si>
+  <si>
+    <t>PCB Sek_coil V3</t>
+  </si>
+  <si>
+    <t>PCB tray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. RDpico_PS </t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>33nF</t>
+  </si>
+  <si>
+    <t>C4, C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>1N4001</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch_Pin3Ring</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Q1, Q2</t>
+  </si>
+  <si>
+    <t>2k2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>AP1117-ADJ</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/mkp10-pp-puls-kondensator-33-nf-10-630-vdc-rm-15-mkp10-630-33n-p31975.html?&amp;nbc=1</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/stehende-induktivitaet-09hvp-ferrit-330-h-l-09hvp-330--p255620.html?&amp;nbc=1</t>
+  </si>
+  <si>
+    <t>magnet</t>
+  </si>
+  <si>
+    <t>magnet, diameter 6mm, thickness 3 mm</t>
+  </si>
+  <si>
+    <t>screw</t>
+  </si>
+  <si>
+    <t>M2x6 screw</t>
+  </si>
+  <si>
+    <t>M2 nuts</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>bolt M3x20mm, female - female</t>
+  </si>
+  <si>
+    <t>screw flat head, M3x6</t>
+  </si>
+  <si>
+    <t>https://shop.der-schraubenladen.de/schrauben/metrische-schrauben/schrauben-flachkopf/2144/iso-7380-2-linsenschraube-mit-flansch-innensechskant-edelstahl-a2?number=SW12060.28&amp;c=10</t>
+  </si>
+  <si>
+    <t>bumper</t>
+  </si>
+  <si>
+    <t>bumper lens shape, diam. 6.4 mm, thickness 1.9 mm</t>
+  </si>
+  <si>
+    <t>https://amzn.eu/d/7VAHGcK</t>
+  </si>
+  <si>
+    <t>100 µF</t>
+  </si>
+  <si>
+    <t>10 µF, 50V</t>
+  </si>
+  <si>
+    <t>100 nF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/short/mcj02zrf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/short/m1qfmmt3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/short/vpbrpqr7</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/short/bm8m0bnr</t>
+  </si>
+  <si>
+    <t>CD motor, RF-300F-12350</t>
+  </si>
+  <si>
+    <t>TIP30C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/short/vnqt5f7f</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/short/23pbq23z</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>100 Ohm</t>
+  </si>
+  <si>
+    <t>270 Ohm</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/short/7zr2m040</t>
+  </si>
+  <si>
+    <t>330 µH</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/short/hphdjfzr</t>
+  </si>
+  <si>
+    <t>https://shop.der-schraubenladen.de/Abstandsbolzen-Distanzhalter-Distin-Innen-Innen-Messing-vernickelt/SW11544.26</t>
+  </si>
+  <si>
+    <t>3. PCBs</t>
+  </si>
+  <si>
+    <t>Amazon1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,13 +470,34 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -283,21 +509,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{EE6145C6-27D1-7C4D-9867-AEFEECB0782A}"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -315,7 +549,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RDpico_display" connectionId="1" xr16:uid="{5936332F-EB47-9F41-ADBA-36D32954AAF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RD56m_PS_V1" connectionId="1" xr16:uid="{103D6ACD-5F5A-6E45-9D25-02CCAC6791B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="RDpico_display" connectionId="2" xr16:uid="{5936332F-EB47-9F41-ADBA-36D32954AAF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,365 +873,868 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2F900B-AB3E-204C-B614-3F0D4F315EC2}">
-  <dimension ref="A1:E23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="70.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="50" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
+      <c r="E51" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{A4E9FFC0-A011-A842-99E2-B0F3AA6A58C8}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{A4E9FFC0-A011-A842-99E2-B0F3AA6A58C8}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{290CB162-B2EA-5345-898E-BB05B53E1FD1}"/>
+    <hyperlink ref="E29" r:id="rId3" xr:uid="{07AF624E-221F-3E45-8549-36DCC4F9C0E4}"/>
+    <hyperlink ref="E42" r:id="rId4" xr:uid="{0AF45E38-55D8-0B40-A5FB-3E6CF56F0F9C}"/>
+    <hyperlink ref="E46" r:id="rId5" xr:uid="{6DF762C3-CF7B-3948-9DBF-49A00BEE0A84}"/>
+    <hyperlink ref="E47" r:id="rId6" xr:uid="{EEC00483-399F-4944-8B8D-773CA7CFBB76}"/>
+    <hyperlink ref="E45" r:id="rId7" xr:uid="{693D2F13-662D-E047-88EB-954E3E82C6C6}"/>
+    <hyperlink ref="E26" r:id="rId8" xr:uid="{922B5636-2E92-6342-A9E0-C53CA4C47ADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>